--- a/medicine/Enfance/Langelot_fait_le_malin/Langelot_fait_le_malin.xlsx
+++ b/medicine/Enfance/Langelot_fait_le_malin/Langelot_fait_le_malin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot fait le malin est le dix-neuvième roman de la série Langelot, écrite par le Lieutenant X (pseudonyme de Vladimir Volkoff). Il a été publié en 1972.
@@ -512,7 +524,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Langelot : orphelin, agent du Service National d'Information Fonctionnelle, blond, 1,68 m, mince, « traits menus mais durs ».
 Capitaine Montferrand : chef de la section « Protection » du SNIF.
@@ -548,7 +562,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Sluni est un petit voyou qui a été contacté par un dénommé Lourcine pour faire un « travail louche ». Craignant d'être pris dans le cercle vicieux de la délinquance, Sluni alerte la gendarmerie, qui fait appel au Service National d'Information Fonctionnelle (SNIF).
 Le capitaine Montferrand lance l'opération « Incartade » : Langelot va prendre la place de Sluni, et effectuer le travail attendu, tandis que Sluni sera assigné à résidence dans une propriété du SNIF. 
@@ -586,7 +602,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1972 - Hachette, Bibliothèque verte (français, version originale), illustrations de Maurice Paulin.</t>
         </is>
@@ -616,7 +634,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Dictature des colonels, alors au pouvoir en Grèce lors de la publication du roman, est totalement passée sous silence. On peut remarquer d'ailleurs que c'est un colonel grec (donc un militaire grec) qui délivre les trois jeunes filles prisonnières, et non pas la police grecque.
 Il est fait mention, à la fin du chapitre 15, du portrait du roi ornant le bureau du colonel Klixiadès : le roman ayant paru en 1972, et Constantin II de Grèce ayant cessé d'être roi à compter du 1er juin 1973, il n'y a pas d'anachronisme.
